--- a/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-organization.xlsx
+++ b/jpcore-r4/v1.1.2-CSalias/StructureDefinition-jp-organization.xlsx
@@ -856,7 +856,7 @@
   </si>
   <si>
     <t>健康保険組合などの保険者の保険者番号を表現する際のIdentifier表現に使用する  
-system要素には保険者番号を示すOID"urn:oid:1.2.392.100495.20.3.61"を指定する。</t>
+system要素には保険者番号を示すOID" http://jpfhir.jp/fhir/core/mhlw/IdSystem/InsurerNumber"を指定する。</t>
   </si>
   <si>
     <t>Organization.identifier:insurerNumber.id</t>
@@ -874,7 +874,7 @@
     <t>Organization.identifier:insurerNumber.system</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.61</t>
+    <t>http://jpfhir.jp/fhir/core/mhlw/IdSystem/InsurerNumber</t>
   </si>
   <si>
     <t>Organization.identifier:insurerNumber.value</t>
